--- a/2.xlsx
+++ b/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="143">
   <si>
     <t>oppo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,15 +240,371 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ANS01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M 13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A 16 S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANS25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 53 5G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S 20 FE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOTOROLA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANS29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 54 5G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S 21 FE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANS04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANS02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 20 2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 30 S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANS07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 02 S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 03 S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A 12 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 22 5G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 32 5G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 25 Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C 35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BN544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 22 4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 32 4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M 30 S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M 31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y6 PLUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HONOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BN544</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANR06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE 10 S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE 11 S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANR09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE 10 5G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE 10 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 LITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANR03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 1 +</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANR11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANP01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 33 5G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENO 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANR05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE 9 5G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE 9 T 5G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANP03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 53 S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 92 S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENO 4 Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANR02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 54 S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANP05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RENO 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIND X3 LITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANR12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE 12 PRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE 12 PRO +</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 T PRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANR13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE 12 4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE 12 5G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 T LITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +612,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +636,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +661,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -295,13 +669,690 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,6 +1361,174 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,147 +1824,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="23.25" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A2" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A3" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="29" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A5" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="29" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A6" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A19" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="57"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A21" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="58"/>
+    </row>
+    <row r="22" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A22" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="58"/>
+    </row>
+    <row r="23" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A23" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="42"/>
+    </row>
+    <row r="24" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A24" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="42"/>
+    </row>
+    <row r="25" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A25" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A26" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="42"/>
+    </row>
+    <row r="27" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A27" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="42"/>
+    </row>
+    <row r="28" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A28" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="42"/>
+    </row>
+    <row r="29" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A29" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="43"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.375" defaultRowHeight="21" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" customHeight="1">
+    <row r="1" spans="1:9" ht="21" customHeight="1">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" customHeight="1">
+    <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1">
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="21" customHeight="1">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" customHeight="1">
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" customHeight="1">
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" customHeight="1">
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="21" customHeight="1">
       <c r="A7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="21" customHeight="1">
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1">
       <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21" customHeight="1">
+    <row r="9" spans="1:9" ht="21" customHeight="1">
       <c r="A9" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21" customHeight="1">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="21" customHeight="1">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="21" customHeight="1">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21" customHeight="1">
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="21" customHeight="1">
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="21" customHeight="1">
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="21" customHeight="1">
+      <c r="C20" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -756,94 +2477,139 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="18.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="55.5" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" customHeight="1">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.25" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1">
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1">
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1">
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1">
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1">
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1">
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1">
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1">
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1">
+    <row r="13" spans="1:7" ht="22.5" customHeight="1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" customHeight="1">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" customHeight="1">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -855,7 +2621,7 @@
     </row>
     <row r="18" spans="1:1" ht="18.75" customHeight="1">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -870,44 +2636,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="25.5" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" customHeight="1">
+    <row r="1" spans="1:9" ht="25.5" customHeight="1">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25.5" customHeight="1">
+    <row r="3" spans="1:9" ht="25.5" customHeight="1">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="25.5" customHeight="1">
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" customHeight="1">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="25.5" customHeight="1">
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" customHeight="1">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="25.5" customHeight="1">
+      <c r="G5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25.5" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -915,7 +2702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="25.5" customHeight="1">
+    <row r="7" spans="1:9" ht="25.5" customHeight="1">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -928,27 +2715,76 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="21.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7" ht="21.75" customHeight="1">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:7" ht="21.75" customHeight="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21.75" customHeight="1">
       <c r="A4" s="1">
         <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21.75" customHeight="1">
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21.75" customHeight="1">
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21.75" customHeight="1">
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21.75" customHeight="1">
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21.75" customHeight="1">
+      <c r="C9" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +2796,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -983,6 +2819,84 @@
         <v>39</v>
       </c>
     </row>
+    <row r="6" spans="1:1" ht="22.5" customHeight="1">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="22.5" customHeight="1">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="19.5" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="21.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="21.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
